--- a/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
+++ b/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CO/land/BLAPE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CO/land/BLAPE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA0D429D-90D2-9745-A28D-ECB7884F00AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A8BE62A-4413-D742-8AA7-483AE5C50D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="18480" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="760" windowWidth="18480" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2558,7 +2558,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="16">
-        <v>45233</v>
+        <v>45296</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>2</v>
